--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -436,16 +436,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>17.67128045105162</v>
+        <v>32.20575993450993</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -462,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
@@ -482,7 +482,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G6" t="n">
         <v>105</v>

--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>32.20575993450993</v>
+        <v>27.14289044289044</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -462,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
@@ -482,7 +482,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
         <v>105</v>

--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+  <si>
+    <t>min_jump_magnitude</t>
+  </si>
+  <si>
+    <t>max_settling_time</t>
+  </si>
   <si>
     <t>Device</t>
   </si>
@@ -380,7 +386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:G6"/>
+  <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,29 +394,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="n">
+        <v>31</v>
+      </c>
+    </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
@@ -430,27 +450,27 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F4" t="n">
-        <v>27.14289044289044</v>
+        <v>16.20371128483772</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.05</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -462,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
@@ -470,7 +490,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -482,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G6" t="n">
         <v>105</v>

--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -496,16 +496,16 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
         <v>36</v>
       </c>
       <c r="G6" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
